--- a/public/cn2021_2022/2022 10 digit codes Chapter 73.xlsx
+++ b/public/cn2021_2022/2022 10 digit codes Chapter 73.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hmrc-my.sharepoint.com/personal/david_harris2_hmrc_gov_uk/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{EB7C9452-BADA-428D-90EA-2D595D8E3B9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2A6AE3FC-6CF7-4BDC-BFAD-87BE7657C598}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{512214FF-31D6-4455-8AC5-E154F47AAF37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{19D89987-6BD6-42F8-8AE4-E7A5D0303088}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{5FA8D894-BD3D-4FA8-98EB-EFB3EBB093EE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="106">
   <si>
     <t>10 Digit Codes Deleted from 1 January 2022</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>Umbrella Subheading 7304 5983</t>
+  </si>
+  <si>
+    <t>7306 5020 00</t>
+  </si>
+  <si>
+    <t>Precision Tubes</t>
   </si>
 </sst>
 </file>
@@ -882,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D3754F-8F87-4DB9-921D-A3ADD2A0C414}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1182,264 +1188,272 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="21" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B40" s="23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="34.9" x14ac:dyDescent="0.45">
-      <c r="A40" s="21" t="s">
+    <row r="41" spans="1:2" ht="34.9" x14ac:dyDescent="0.45">
+      <c r="A41" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B41" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="21" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="24" t="s">
+      <c r="B42" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B43" s="26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A43" s="24" t="s">
+    <row r="44" spans="1:2" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="A44" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B44" s="26" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B46" s="26" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A46" s="24" t="s">
+    <row r="47" spans="1:2" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="A47" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B47" s="25" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B49" s="26" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="31" t="s">
-        <v>70</v>
+        <v>99</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>8</v>
+        <v>63</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>28</v>
+        <v>100</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>8</v>
+        <v>65</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="27" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B55" s="29" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="27" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="34.9" x14ac:dyDescent="0.45">
-      <c r="A58" s="32" t="s">
+      <c r="B58" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="34.9" x14ac:dyDescent="0.45">
+      <c r="A59" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B59" s="33" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="34.9" x14ac:dyDescent="0.45">
-      <c r="A59" s="34" t="s">
+    <row r="60" spans="1:2" ht="34.9" x14ac:dyDescent="0.45">
+      <c r="A60" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B60" s="35" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" s="36" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="37" t="s">
+      <c r="B61" s="37" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A61" s="36" t="s">
+    <row r="62" spans="1:2" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="A62" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="37" t="s">
+      <c r="B62" s="37" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="37" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B64" s="37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A64" s="36" t="s">
+    <row r="65" spans="1:2" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="A65" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B65" s="38" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A65" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="38" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B67" s="38" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A67" s="39" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B68" s="41" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" s="41" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B69" s="41" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B71" s="41" t="s">
         <v>8</v>
       </c>
     </row>
